--- a/Hen Industry Data.xlsx
+++ b/Hen Industry Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\In Progress Projects\Batch processor\Case Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FC063E-0F06-45B7-8D4F-8251E8BDE795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F111A-CBA4-4C82-A5C2-33C904FA801F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,12 +547,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="12">
-        <f>E2</f>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E2" s="12">
-        <f>10/(24*60)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -572,12 +570,10 @@
         <v>100</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" ref="D3:D26" si="0">E3</f>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E26" si="1">10/(24*60)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F3" s="2">
         <v>107</v>
@@ -597,12 +593,10 @@
         <v>200</v>
       </c>
       <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F4" s="2">
         <v>180</v>
@@ -622,12 +616,10 @@
         <v>200</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E5" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F5" s="2">
         <v>193</v>
@@ -647,12 +639,10 @@
         <v>200</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E6" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F6" s="2">
         <v>225</v>
@@ -672,12 +662,10 @@
         <v>400</v>
       </c>
       <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E7" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F7" s="2">
         <v>420</v>
@@ -697,12 +685,10 @@
         <v>600</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E8" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F8" s="2">
         <v>647</v>
@@ -722,12 +708,10 @@
         <v>800</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F9" s="2">
         <v>795</v>
@@ -747,12 +731,10 @@
         <v>800</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E10" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F10" s="2">
         <v>820</v>
@@ -772,12 +754,10 @@
         <v>800</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F11" s="2">
         <v>831</v>
@@ -787,379 +767,124 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="13">
-        <v>800</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>842</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C13" s="13">
-        <v>900</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>851</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C14" s="13">
-        <v>900</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>913</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1200</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1196</v>
-      </c>
-      <c r="G15" s="2">
-        <v>7</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C16" s="13">
-        <v>1300</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1253</v>
-      </c>
-      <c r="G16" s="2">
-        <v>8</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1300</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1323</v>
-      </c>
-      <c r="G17" s="2">
-        <v>9</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1400</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E18" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1424</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1600</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E19" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1583</v>
-      </c>
-      <c r="G19" s="2">
-        <v>10</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C20" s="13">
-        <v>1700</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1718</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C21" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1990</v>
-      </c>
-      <c r="G21" s="2">
-        <v>8</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C22" s="13">
-        <v>2100</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2130</v>
-      </c>
-      <c r="G22" s="2">
-        <v>6</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C23" s="13">
-        <v>2100</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2131</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C24" s="13">
-        <v>2200</v>
-      </c>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E24" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2249</v>
-      </c>
-      <c r="G24" s="2">
-        <v>4</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C25" s="13">
-        <v>2400</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2363</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>5000</v>
-      </c>
-      <c r="C26" s="13">
-        <v>2400</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2378</v>
-      </c>
-      <c r="G26" s="2">
-        <v>7</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -2743,7 +2468,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2858,7 +2583,7 @@
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3139,18 +2864,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>240</v>
-      </c>
-      <c r="C12" s="4">
-        <v>240</v>
-      </c>
-      <c r="D12" s="4">
-        <v>240</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -3164,18 +2881,10 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>660</v>
-      </c>
-      <c r="C13" s="4">
-        <v>420</v>
-      </c>
-      <c r="D13" s="4">
-        <v>600</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -3189,18 +2898,10 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>660</v>
-      </c>
-      <c r="C14" s="4">
-        <v>660</v>
-      </c>
-      <c r="D14" s="4">
-        <v>660</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -3214,18 +2915,10 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>660</v>
-      </c>
-      <c r="C15" s="4">
-        <v>660</v>
-      </c>
-      <c r="D15" s="4">
-        <v>420</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -3239,18 +2932,10 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>240</v>
-      </c>
-      <c r="C16" s="4">
-        <v>240</v>
-      </c>
-      <c r="D16" s="4">
-        <v>240</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -3264,18 +2949,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>660</v>
-      </c>
-      <c r="C17" s="4">
-        <v>600</v>
-      </c>
-      <c r="D17" s="4">
-        <v>600</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -3289,18 +2966,8 @@
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>600</v>
-      </c>
-      <c r="C18" s="3">
-        <v>600</v>
-      </c>
-      <c r="D18" s="3">
-        <v>600</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
       <c r="E18" s="4"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -3314,18 +2981,9 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>240</v>
-      </c>
-      <c r="C19" s="4">
-        <v>660</v>
-      </c>
-      <c r="D19" s="4">
-        <v>660</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -3339,18 +2997,10 @@
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>600</v>
-      </c>
-      <c r="C20" s="4">
-        <v>600</v>
-      </c>
-      <c r="D20" s="4">
-        <v>600</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -3364,18 +3014,10 @@
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>240</v>
-      </c>
-      <c r="C21" s="4">
-        <v>240</v>
-      </c>
-      <c r="D21" s="4">
-        <v>240</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -3389,18 +3031,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>240</v>
-      </c>
-      <c r="C22" s="4">
-        <v>600</v>
-      </c>
-      <c r="D22" s="4">
-        <v>600</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -3414,18 +3048,10 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>600</v>
-      </c>
-      <c r="C23" s="4">
-        <v>600</v>
-      </c>
-      <c r="D23" s="4">
-        <v>600</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -3439,18 +3065,10 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>660</v>
-      </c>
-      <c r="C24" s="4">
-        <v>660</v>
-      </c>
-      <c r="D24" s="4">
-        <v>660</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -3464,18 +3082,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>660</v>
-      </c>
-      <c r="C25" s="4">
-        <v>660</v>
-      </c>
-      <c r="D25" s="4">
-        <v>660</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -3489,18 +3099,10 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>660</v>
-      </c>
-      <c r="C26" s="4">
-        <v>660</v>
-      </c>
-      <c r="D26" s="4">
-        <v>660</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -6557,10 +6159,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3014A712-1488-40B6-A5A9-184DD4202C0B}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6584,15 +6186,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <f>PJ_bar!B2*0.1</f>
         <v>24</v>
       </c>
       <c r="C2" s="11">
-        <f>PJ_bar!C2*0.1</f>
         <v>24</v>
       </c>
       <c r="D2" s="11">
-        <f>PJ_bar!D2*0.1</f>
         <v>24</v>
       </c>
     </row>
@@ -6601,15 +6200,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <f>PJ_bar!B3*0.1</f>
         <v>60</v>
       </c>
       <c r="C3" s="11">
-        <f>PJ_bar!C3*0.1</f>
         <v>60</v>
       </c>
       <c r="D3" s="11">
-        <f>PJ_bar!D3*0.1</f>
         <v>60</v>
       </c>
     </row>
@@ -6618,15 +6214,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <f>PJ_bar!B4*0.1</f>
         <v>66</v>
       </c>
       <c r="C4" s="11">
-        <f>PJ_bar!C4*0.1</f>
         <v>66</v>
       </c>
       <c r="D4" s="11">
-        <f>PJ_bar!D4*0.1</f>
         <v>60</v>
       </c>
     </row>
@@ -6635,15 +6228,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <f>PJ_bar!B5*0.1</f>
         <v>60</v>
       </c>
       <c r="C5" s="11">
-        <f>PJ_bar!C5*0.1</f>
         <v>60</v>
       </c>
       <c r="D5" s="11">
-        <f>PJ_bar!D5*0.1</f>
         <v>60</v>
       </c>
     </row>
@@ -6652,15 +6242,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <f>PJ_bar!B6*0.1</f>
         <v>24</v>
       </c>
       <c r="C6" s="11">
-        <f>PJ_bar!C6*0.1</f>
         <v>60</v>
       </c>
       <c r="D6" s="11">
-        <f>PJ_bar!D6*0.1</f>
         <v>66</v>
       </c>
     </row>
@@ -6669,15 +6256,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <f>PJ_bar!B7*0.1</f>
         <v>66</v>
       </c>
       <c r="C7" s="11">
-        <f>PJ_bar!C7*0.1</f>
         <v>66</v>
       </c>
       <c r="D7" s="11">
-        <f>PJ_bar!D7*0.1</f>
         <v>72</v>
       </c>
     </row>
@@ -6686,15 +6270,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <f>PJ_bar!B8*0.1</f>
         <v>60</v>
       </c>
       <c r="C8" s="11">
-        <f>PJ_bar!C8*0.1</f>
         <v>60</v>
       </c>
       <c r="D8" s="11">
-        <f>PJ_bar!D8*0.1</f>
         <v>60</v>
       </c>
     </row>
@@ -6703,15 +6284,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <f>PJ_bar!B9*0.1</f>
         <v>66</v>
       </c>
       <c r="C9" s="11">
-        <f>PJ_bar!C9*0.1</f>
         <v>66</v>
       </c>
       <c r="D9" s="11">
-        <f>PJ_bar!D9*0.1</f>
         <v>42</v>
       </c>
     </row>
@@ -6720,15 +6298,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <f>PJ_bar!B10*0.1</f>
         <v>60</v>
       </c>
       <c r="C10" s="11">
-        <f>PJ_bar!C10*0.1</f>
         <v>66</v>
       </c>
       <c r="D10" s="11">
-        <f>PJ_bar!D10*0.1</f>
         <v>60</v>
       </c>
     </row>
@@ -6737,270 +6312,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <f>PJ_bar!B11*0.1</f>
         <v>66</v>
       </c>
       <c r="C11" s="11">
-        <f>PJ_bar!C11*0.1</f>
         <v>60</v>
       </c>
       <c r="D11" s="11">
-        <f>PJ_bar!D11*0.1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <f>PJ_bar!B12*0.1</f>
-        <v>24</v>
-      </c>
-      <c r="C12" s="11">
-        <f>PJ_bar!C12*0.1</f>
-        <v>24</v>
-      </c>
-      <c r="D12" s="11">
-        <f>PJ_bar!D12*0.1</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <f>PJ_bar!B13*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="C13" s="11">
-        <f>PJ_bar!C13*0.1</f>
-        <v>42</v>
-      </c>
-      <c r="D13" s="11">
-        <f>PJ_bar!D13*0.1</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <f>PJ_bar!B14*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="C14" s="11">
-        <f>PJ_bar!C14*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="D14" s="11">
-        <f>PJ_bar!D14*0.1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <f>PJ_bar!B15*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="C15" s="11">
-        <f>PJ_bar!C15*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="D15" s="11">
-        <f>PJ_bar!D15*0.1</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <f>PJ_bar!B16*0.1</f>
-        <v>24</v>
-      </c>
-      <c r="C16" s="11">
-        <f>PJ_bar!C16*0.1</f>
-        <v>24</v>
-      </c>
-      <c r="D16" s="11">
-        <f>PJ_bar!D16*0.1</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <f>PJ_bar!B17*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="C17" s="11">
-        <f>PJ_bar!C17*0.1</f>
-        <v>60</v>
-      </c>
-      <c r="D17" s="11">
-        <f>PJ_bar!D17*0.1</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <f>PJ_bar!B18*0.1</f>
-        <v>60</v>
-      </c>
-      <c r="C18" s="11">
-        <f>PJ_bar!C18*0.1</f>
-        <v>60</v>
-      </c>
-      <c r="D18" s="11">
-        <f>PJ_bar!D18*0.1</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <f>PJ_bar!B19*0.1</f>
-        <v>24</v>
-      </c>
-      <c r="C19" s="11">
-        <f>PJ_bar!C19*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="D19" s="11">
-        <f>PJ_bar!D19*0.1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <f>PJ_bar!B20*0.1</f>
-        <v>60</v>
-      </c>
-      <c r="C20" s="11">
-        <f>PJ_bar!C20*0.1</f>
-        <v>60</v>
-      </c>
-      <c r="D20" s="11">
-        <f>PJ_bar!D20*0.1</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <f>PJ_bar!B21*0.1</f>
-        <v>24</v>
-      </c>
-      <c r="C21" s="11">
-        <f>PJ_bar!C21*0.1</f>
-        <v>24</v>
-      </c>
-      <c r="D21" s="11">
-        <f>PJ_bar!D21*0.1</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <f>PJ_bar!B22*0.1</f>
-        <v>24</v>
-      </c>
-      <c r="C22" s="11">
-        <f>PJ_bar!C22*0.1</f>
-        <v>60</v>
-      </c>
-      <c r="D22" s="11">
-        <f>PJ_bar!D22*0.1</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <f>PJ_bar!B23*0.1</f>
-        <v>60</v>
-      </c>
-      <c r="C23" s="11">
-        <f>PJ_bar!C23*0.1</f>
-        <v>60</v>
-      </c>
-      <c r="D23" s="11">
-        <f>PJ_bar!D23*0.1</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <f>PJ_bar!B24*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="C24" s="11">
-        <f>PJ_bar!C24*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="D24" s="11">
-        <f>PJ_bar!D24*0.1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <f>PJ_bar!B25*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="C25" s="11">
-        <f>PJ_bar!C25*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="D25" s="11">
-        <f>PJ_bar!D25*0.1</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <f>PJ_bar!B26*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="C26" s="11">
-        <f>PJ_bar!C26*0.1</f>
-        <v>66</v>
-      </c>
-      <c r="D26" s="11">
-        <f>PJ_bar!D26*0.1</f>
         <v>66</v>
       </c>
     </row>
